--- a/Programmes/Experiment.xlsx
+++ b/Programmes/Experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20200" windowHeight="14720"/>
+    <workbookView windowWidth="26860" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,14 +73,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,68 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -164,46 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +218,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,169 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,11 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,36 +441,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,16 +472,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,145 +514,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -985,10 +985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1162,32 +1162,43 @@
         <v>4.88736</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10">
+        <v>0.01442</v>
+      </c>
+      <c r="D10">
+        <v>0.12265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>0.93689</v>
+      </c>
       <c r="D11">
         <v>12.76318</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1199,16 +1210,30 @@
       </c>
       <c r="E12">
         <v>2985.63626</v>
+      </c>
+      <c r="F12">
+        <v>2817.06742</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>3</v>
       </c>
+      <c r="C13">
+        <v>0.41874</v>
+      </c>
       <c r="D13">
         <v>4.88736</v>
       </c>
       <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14">
+        <v>0.020668</v>
+      </c>
+      <c r="D14">
+        <v>130.99244</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Programmes/Experiment.xlsx
+++ b/Programmes/Experiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="14740"/>
+    <workbookView windowWidth="26120" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>var*6</t>
   </si>
@@ -34,10 +34,10 @@
     <t>var*10</t>
   </si>
   <si>
-    <t>var*17</t>
+    <t>var*15</t>
   </si>
   <si>
-    <t>var*24</t>
+    <t>&gt;</t>
   </si>
 </sst>
 </file>
@@ -50,7 +50,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,12 +59,105 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -73,14 +166,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -88,53 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,62 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,85 +212,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,91 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,32 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,6 +463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,6 +492,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,154 +511,151 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,8 +978,8 @@
   <sheetPr/>
   <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -998,8 +989,7 @@
     <col min="4" max="4" width="14.1923076923077" customWidth="1"/>
     <col min="5" max="5" width="12.8846153846154" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="10.1153846153846" customWidth="1"/>
-    <col min="8" max="8" width="9.71153846153846" customWidth="1"/>
+    <col min="7" max="8" width="11.7019230769231" customWidth="1"/>
     <col min="9" max="12" width="10.6634615384615"/>
     <col min="13" max="13" width="10.4807692307692" customWidth="1"/>
   </cols>
@@ -1162,7 +1152,7 @@
         <v>4.88736</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>200</v>
       </c>
@@ -1170,24 +1160,33 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:6">
       <c r="C10">
         <v>0.01442</v>
       </c>
       <c r="D10">
+        <v>0.01314</v>
+      </c>
+      <c r="E10">
         <v>0.12265</v>
       </c>
+      <c r="F10">
+        <v>0.5166</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1194,13 @@
         <v>0.93689</v>
       </c>
       <c r="D11">
+        <v>1.93244</v>
+      </c>
+      <c r="E11">
         <v>12.76318</v>
+      </c>
+      <c r="F11">
+        <v>17.31141</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1206,16 +1211,16 @@
         <v>2758.01422</v>
       </c>
       <c r="D12">
+        <v>2783.19483</v>
+      </c>
+      <c r="E12">
         <v>2584.11191</v>
       </c>
-      <c r="E12">
-        <v>2985.63626</v>
-      </c>
       <c r="F12">
-        <v>2817.06742</v>
+        <v>2949.20529</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1223,16 +1228,27 @@
         <v>0.41874</v>
       </c>
       <c r="D13">
+        <v>0.03556</v>
+      </c>
+      <c r="E13">
         <v>4.88736</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="F13">
+        <v>13.45632</v>
+      </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:6">
       <c r="C14">
         <v>0.020668</v>
       </c>
       <c r="D14">
+        <v>4.43992</v>
+      </c>
+      <c r="E14">
         <v>130.99244</v>
+      </c>
+      <c r="F14">
+        <v>2059.38594</v>
       </c>
     </row>
   </sheetData>
